--- a/biology/Zoologie/Cormoran_de_Magellan/Cormoran_de_Magellan.xlsx
+++ b/biology/Zoologie/Cormoran_de_Magellan/Cormoran_de_Magellan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalacrocorax magellanicus
 Le Cormoran de Magellan (Phalacrocorax magellanicus) est une espèce d'oiseau appartenant à la famille des Phalacrocoracidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau réside le long des côtes méridionales de la Patagonie et autour des Malouines. Son aire d'hivrenage s'étend de manière éparse sur la côte ouest et jusqu'en Uruguay sur la côte est.
 </t>
